--- a/Documentations/Datasets/3busCDF.xlsx
+++ b/Documentations/Datasets/3busCDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Ladder-Iterative-Loadflow\Documentations\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89D602B-3895-4B32-BA44-8216DB17B8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42215DAE-60A4-453F-9FE6-1E2A329FCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11475" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11475" xr2:uid="{AE3323F2-0094-4B0C-9BAF-50E26493BB40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>END OF DATA</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>11/13/21 RYERSON UNIVERSITY  100.0  2021 W IEEE 33 Bus Test Case</t>
+  </si>
+  <si>
+    <t>Bus 3</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02368925-FB68-47DE-A660-EAA97F9F58F2}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,11 +524,11 @@
       <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="11">
-        <v>1500</v>
-      </c>
-      <c r="I3" s="11">
-        <v>750</v>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -578,10 +581,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H4" s="11">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="I4" s="11">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -612,290 +615,281 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>900</v>
+      </c>
+      <c r="I5" s="11">
+        <v>500</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>12.66</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3">
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:21">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.17050000000000001</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.34089999999999998</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U7" s="2">
-        <v>4.5999999999999996</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U8" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>0.2273</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>0.45450000000000002</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U9" s="2">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="3">
+    <row r="10" spans="1:21">
+      <c r="A10" s="3">
         <v>-999</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="3">
-        <v>-99</v>
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
+      <c r="A13" s="3">
+        <v>-99</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="3">
-        <v>-9</v>
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="3">
+        <v>-9</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="5">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.50180000000000002</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.43709999999999999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1.5</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -910,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <v>0.31659999999999999</v>
+        <v>0.50180000000000002</v>
       </c>
       <c r="H17" s="7">
-        <v>0.1613</v>
+        <v>0.43709999999999999</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -957,10 +951,10 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -975,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="7">
-        <v>0.60799999999999998</v>
+        <v>0.31659999999999999</v>
       </c>
       <c r="H18" s="7">
-        <v>0.6008</v>
+        <v>0.1613</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1022,10 +1016,10 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="5">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1040,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <v>0.19370000000000001</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H19" s="7">
-        <v>0.2258</v>
+        <v>0.6008</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1087,10 +1081,10 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1105,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="7">
-        <v>0.21279999999999999</v>
+        <v>0.19370000000000001</v>
       </c>
       <c r="H20" s="7">
-        <v>0.33079999999999998</v>
+        <v>0.2258</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -1151,20 +1145,85 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="3">
         <v>-999</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="U23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1173,12 +1232,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1187,7 +1240,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025B10B9F6FFF7142B7B32A4A4A47FA43" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="66c3d941594396c273f2733aaa9e4491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="034b7289-f67f-4149-bf72-e8ff36efdb2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a3e312227fdd923874c5297960ecd80" ns3:_="">
     <xsd:import namespace="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
@@ -1319,23 +1372,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A630C0-0A26-4E8C-8075-3A67A467C74C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524FC3A-FFBB-4947-8673-B2AD9D6D8986}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1343,7 +1386,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4B6B2C-9891-4227-91D2-DF310237F6D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1359,4 +1402,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A630C0-0A26-4E8C-8075-3A67A467C74C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="034b7289-f67f-4149-bf72-e8ff36efdb2e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>